--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -516,18 +516,10 @@
       <c r="H2" t="n">
         <v>500000</v>
       </c>
-      <c r="I2" t="n">
-        <v>27</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.001875</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15407</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.030814</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -562,18 +554,10 @@
       <c r="H3" t="n">
         <v>100000</v>
       </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>839</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.00839</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -608,18 +592,10 @@
       <c r="H4" t="n">
         <v>500000</v>
       </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K4" t="n">
-        <v>705</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.00141</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -654,18 +630,10 @@
       <c r="H5" t="n">
         <v>500000</v>
       </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K5" t="n">
-        <v>710</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.00142</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -700,18 +668,10 @@
       <c r="H6" t="n">
         <v>500000</v>
       </c>
-      <c r="I6" t="n">
-        <v>17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.001180555555555556</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4759</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.009518</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -746,18 +706,10 @@
       <c r="H7" t="n">
         <v>500000</v>
       </c>
-      <c r="I7" t="n">
-        <v>17</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.001180555555555556</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5446</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.010892</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -792,18 +744,10 @@
       <c r="H8" t="n">
         <v>500000</v>
       </c>
-      <c r="I8" t="n">
-        <v>17</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.001180555555555556</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5198</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.010396</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -838,18 +782,10 @@
       <c r="H9" t="n">
         <v>300000</v>
       </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K9" t="n">
-        <v>680</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.002266666666666667</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -884,18 +820,10 @@
       <c r="H10" t="n">
         <v>300000</v>
       </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K10" t="n">
-        <v>766</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.002553333333333333</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -930,18 +858,10 @@
       <c r="H11" t="n">
         <v>200000</v>
       </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K11" t="n">
-        <v>864</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.00432</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -976,18 +896,10 @@
       <c r="H12" t="n">
         <v>200000</v>
       </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K12" t="n">
-        <v>684</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.00342</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1022,18 +934,10 @@
       <c r="H13" t="n">
         <v>200000</v>
       </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K13" t="n">
-        <v>202</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.00101</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1068,18 +972,10 @@
       <c r="H14" t="n">
         <v>500000</v>
       </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K14" t="n">
-        <v>679</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.001358</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1114,18 +1010,10 @@
       <c r="H15" t="n">
         <v>500000</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="K15" t="n">
-        <v>104</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.000208</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1160,18 +1048,10 @@
       <c r="H16" t="n">
         <v>500000</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>175</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.00035</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1206,18 +1086,10 @@
       <c r="H17" t="n">
         <v>500000</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="K17" t="n">
-        <v>104</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.000208</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1252,18 +1124,10 @@
       <c r="H18" t="n">
         <v>500000</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="K18" t="n">
-        <v>104</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.000208</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1298,18 +1162,10 @@
       <c r="H19" t="n">
         <v>500000</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="K19" t="n">
-        <v>140</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.00028</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1344,18 +1200,10 @@
       <c r="H20" t="n">
         <v>500000</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>6.944444444444444e-05</v>
-      </c>
-      <c r="K20" t="n">
-        <v>576</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.001152</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1390,18 +1238,10 @@
       <c r="H21" t="n">
         <v>500000</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1436,18 +1276,10 @@
       <c r="H22" t="n">
         <v>500000</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1482,18 +1314,10 @@
       <c r="H23" t="n">
         <v>500000</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1528,18 +1352,10 @@
       <c r="H24" t="n">
         <v>500000</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1574,18 +1390,10 @@
       <c r="H25" t="n">
         <v>500000</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1620,18 +1428,10 @@
       <c r="H26" t="n">
         <v>500000</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1666,18 +1466,10 @@
       <c r="H27" t="n">
         <v>500000</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K27" t="n">
-        <v>104</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.000208</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1712,18 +1504,10 @@
       <c r="H28" t="n">
         <v>500000</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1758,18 +1542,10 @@
       <c r="H29" t="n">
         <v>500000</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1804,18 +1580,10 @@
       <c r="H30" t="n">
         <v>500000</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1850,18 +1618,10 @@
       <c r="H31" t="n">
         <v>500000</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1896,18 +1656,10 @@
       <c r="H32" t="n">
         <v>500000</v>
       </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K32" t="n">
-        <v>671</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.001342</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1942,18 +1694,10 @@
       <c r="H33" t="n">
         <v>500000</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K33" t="n">
-        <v>104</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.000208</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,11 @@
           <t>Current_Pct_Tokens</t>
         </is>
       </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Last_Reset</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -520,6 +525,11 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -558,6 +568,11 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -596,6 +611,11 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -634,6 +654,11 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -672,6 +697,11 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -710,6 +740,11 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -748,6 +783,11 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -786,6 +826,11 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -824,6 +869,11 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -862,6 +912,11 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -900,6 +955,11 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -938,6 +998,11 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -976,6 +1041,11 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1014,6 +1084,11 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1052,6 +1127,11 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1090,6 +1170,11 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1128,6 +1213,11 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1166,6 +1256,11 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1204,6 +1299,11 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1242,6 +1342,11 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1280,6 +1385,11 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1318,6 +1428,11 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1356,6 +1471,11 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1394,6 +1514,11 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1432,6 +1557,11 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1470,6 +1600,11 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1508,6 +1643,11 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1546,6 +1686,11 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1584,6 +1729,11 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1622,6 +1772,11 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1660,6 +1815,11 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1698,6 +1858,11 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2026-02-10T13:25:12.498067</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -522,16 +522,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001388888888888889</v>
+        <v>0.0003472222222222222</v>
       </c>
       <c r="K2" t="n">
-        <v>549</v>
+        <v>737</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001098</v>
+        <v>0.001474</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -726,16 +726,16 @@
         <v>500000</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>6.944444444444444e-05</v>
+        <v>0.0003472222222222222</v>
       </c>
       <c r="K6" t="n">
-        <v>71</v>
+        <v>346</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000142</v>
+        <v>0.000692</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -777,16 +777,16 @@
         <v>500000</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001388888888888889</v>
+        <v>0.0003472222222222222</v>
       </c>
       <c r="K7" t="n">
-        <v>550</v>
+        <v>743</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0011</v>
+        <v>0.001486</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -828,16 +828,16 @@
         <v>500000</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>6.944444444444444e-05</v>
+        <v>0.0003472222222222222</v>
       </c>
       <c r="K8" t="n">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000154</v>
+        <v>0.0007</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -522,16 +522,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0003472222222222222</v>
+        <v>0.0007638888888888889</v>
       </c>
       <c r="K2" t="n">
-        <v>737</v>
+        <v>2730</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001474</v>
+        <v>0.00546</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -726,16 +726,16 @@
         <v>500000</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0003472222222222222</v>
+        <v>0.0004861111111111111</v>
       </c>
       <c r="K6" t="n">
-        <v>346</v>
+        <v>826</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000692</v>
+        <v>0.001652</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -777,16 +777,16 @@
         <v>500000</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0003472222222222222</v>
+        <v>0.0004166666666666667</v>
       </c>
       <c r="K7" t="n">
-        <v>743</v>
+        <v>983</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001486</v>
+        <v>0.001966</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -828,16 +828,16 @@
         <v>500000</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0003472222222222222</v>
+        <v>0.0004166666666666667</v>
       </c>
       <c r="K8" t="n">
-        <v>350</v>
+        <v>590</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007</v>
+        <v>0.00118</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.0009027777777777777</v>
       </c>
       <c r="K2" t="n">
-        <v>3213</v>
+        <v>3690</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006426</v>
+        <v>0.00738</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0009722222222222222</v>
+        <v>0.001041666666666667</v>
       </c>
       <c r="K2" t="n">
-        <v>4157</v>
+        <v>4400</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008314</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -636,16 +636,16 @@
         <v>500000</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="K4" t="n">
-        <v>71</v>
+        <v>540</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000142</v>
+        <v>0.00108</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -1146,16 +1146,16 @@
         <v>500000</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="K14" t="n">
-        <v>48</v>
+        <v>290</v>
       </c>
       <c r="L14" t="n">
-        <v>9.6e-05</v>
+        <v>0.00058</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -687,16 +687,16 @@
         <v>500000</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="K5" t="n">
-        <v>77</v>
+        <v>634</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000154</v>
+        <v>0.001268</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -942,16 +942,16 @@
         <v>300000</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="K10" t="n">
-        <v>51</v>
+        <v>609</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00017</v>
+        <v>0.00203</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,20 +534,20 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001180555555555556</v>
+        <v>6.944444444444444e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>5381</v>
+        <v>472</v>
       </c>
       <c r="L2" t="n">
-        <v>0.010762</v>
+        <v>0.000944</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2026-02-11T13:27:13.091680</t>
+          <t>2026-02-12T16:16:10.958439</t>
         </is>
       </c>
     </row>
@@ -585,20 +585,20 @@
         <v>100000</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>712</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00712</v>
+        <v>0</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2026-02-11T13:27:13.091680</t>
+          <t>2026-02-12T16:16:10.958439</t>
         </is>
       </c>
     </row>
@@ -636,20 +636,20 @@
         <v>500000</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00108</v>
+        <v>0</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2026-02-11T13:27:13.091680</t>
+          <t>2026-02-12T16:16:10.958439</t>
         </is>
       </c>
     </row>
@@ -687,20 +687,20 @@
         <v>500000</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001268</v>
+        <v>0</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2026-02-11T13:27:13.091680</t>
+          <t>2026-02-12T16:16:10.958439</t>
         </is>
       </c>
     </row>
@@ -738,20 +738,20 @@
         <v>500000</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0004861111111111111</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>826</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001652</v>
+        <v>0</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2026-02-11T13:27:13.091680</t>
+          <t>2026-02-12T16:16:10.958439</t>
         </is>
       </c>
     </row>
@@ -789,20 +789,20 @@
         <v>500000</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0004166666666666667</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>983</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001966</v>
+        <v>0</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2026-02-11T13:27:13.091680</t>
+          <t>2026-02-12T16:16:10.958439</t>
         </is>
       </c>
     </row>
@@ -840,20 +840,20 @@
         <v>500000</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0004166666666666667</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00118</v>
+        <v>0</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2026-02-11T13:27:13.091680</t>
+          <t>2026-02-12T16:16:10.958439</t>
         </is>
       </c>
     </row>
@@ -891,20 +891,20 @@
         <v>300000</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001023333333333333</v>
+        <v>0</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2026-02-11T13:27:13.091680</t>
+          <t>2026-02-12T16:16:10.958439</t>
         </is>
       </c>
     </row>
@@ -942,20 +942,20 @@
         <v>300000</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00203</v>
+        <v>0</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2026-02-11T13:27:13.091680</t>
+          <t>2026-02-12T16:16:10.958439</t>
         </is>
       </c>
     </row>
@@ -993,20 +993,20 @@
         <v>200000</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00143</v>
+        <v>0</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2026-02-11T13:27:13.091680</t>
+          <t>2026-02-12T16:16:10.958439</t>
         </is>
       </c>
     </row>
@@ -1044,20 +1044,20 @@
         <v>200000</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002595</v>
+        <v>0</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2026-02-11T13:27:13.091680</t>
+          <t>2026-02-12T16:16:10.958439</t>
         </is>
       </c>
     </row>
@@ -1095,20 +1095,20 @@
         <v>200000</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000255</v>
+        <v>0</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2026-02-11T13:27:13.091680</t>
+          <t>2026-02-12T16:16:10.958439</t>
         </is>
       </c>
     </row>
@@ -1146,20 +1146,20 @@
         <v>500000</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00058</v>
+        <v>0</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2026-02-11T13:27:13.091680</t>
+          <t>2026-02-12T16:16:10.958439</t>
         </is>
       </c>
     </row>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -687,16 +687,16 @@
         <v>500000</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.001426</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -942,16 +942,16 @@
         <v>300000</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.001773333333333333</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -993,16 +993,16 @@
         <v>200000</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.00281</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,16 +534,16 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001388888888888889</v>
+        <v>0.0002083333333333333</v>
       </c>
       <c r="K2" t="n">
-        <v>937</v>
+        <v>1409</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001874</v>
+        <v>0.002818</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -534,20 +534,20 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002777777777777778</v>
+        <v>6.944444444444444e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>1922</v>
+        <v>238</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003844</v>
+        <v>0.000476</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-14T08:00:33.383907</t>
         </is>
       </c>
     </row>
@@ -585,20 +585,20 @@
         <v>100000</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00469</v>
+        <v>0</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-14T08:00:33.383907</t>
         </is>
       </c>
     </row>
@@ -636,20 +636,20 @@
         <v>500000</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0009879999999999999</v>
+        <v>0</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-14T08:00:33.383907</t>
         </is>
       </c>
     </row>
@@ -687,20 +687,20 @@
         <v>500000</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>713</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001426</v>
+        <v>0</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-14T08:00:33.383907</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-14T08:00:33.383907</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-14T08:00:33.383907</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-14T08:00:33.383907</t>
         </is>
       </c>
     </row>
@@ -891,20 +891,20 @@
         <v>300000</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00162</v>
+        <v>0</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-14T08:00:33.383907</t>
         </is>
       </c>
     </row>
@@ -942,20 +942,20 @@
         <v>300000</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001773333333333333</v>
+        <v>0</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-14T08:00:33.383907</t>
         </is>
       </c>
     </row>
@@ -993,20 +993,20 @@
         <v>200000</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00281</v>
+        <v>0</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-14T08:00:33.383907</t>
         </is>
       </c>
     </row>
@@ -1044,20 +1044,20 @@
         <v>200000</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002375</v>
+        <v>0</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-14T08:00:33.383907</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-14T08:00:33.383907</t>
         </is>
       </c>
     </row>
@@ -1146,20 +1146,20 @@
         <v>500000</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000966</v>
+        <v>0</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2026-02-12T16:16:10.958439</t>
+          <t>2026-02-14T08:00:33.383907</t>
         </is>
       </c>
     </row>

--- a/Free_API_Load_balancer/Limits.xlsx
+++ b/Free_API_Load_balancer/Limits.xlsx
@@ -585,16 +585,16 @@
         <v>100000</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.00241</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
